--- a/biology/Botanique/Sabicea_aspera/Sabicea_aspera.xlsx
+++ b/biology/Botanique/Sabicea_aspera/Sabicea_aspera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabicea aspera est une espèce de liane d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sabicea aspera est une liane ligneuse à tiges de (2)3-4 mm d'épaisseur, faiblement appressées-pubescentes.
 Les stipules sont étroitement triangulaires, (4,5)7-7,5 x 2-2,5 mm, faiblement appressées-pubescentes, à apex aigu.
@@ -521,10 +535,10 @@
 Les fleurs ont l'hypanthium densément appressé-pubescent.
 Le calice est (4)5-lobé, les lobes étroitement triangulaires, 2-3 mm de long, faiblement appressé-pubescent.
 La corolle est longue de 10-13 mm, faiblement érigée-pubescente, blanche.
-Les fruits sont subglobuleux, rouges, mesurant 4-6 mm de diamètre[4].
+Les fruits sont subglobuleux, rouges, mesurant 4-6 mm de diamètre.
 En 1953, Lemée en propose la description suivante de Sabicea aspera :
 « S. aspera Aubl. petits rameaux d'abord velus-grisâtres puis pubescents ; feuilles de 0,06-0,11 sur 0,02-0,05, à pétiole poilu, elliptiques-oblongues acuminees, à base aiguë, le dessus pubescent sur la côte, le dessous très pubescent surtout sur les nervures, avec 7-8 paires de nervures latérales, stipules de 4 mm. aiguës ; inflorescences en panicules pauciflores contractées, à pédoncule court, bractées inférieures petites, étroitement triangulaires ; fleurs pédicellées, en général 5-mères, calice un peu poilu, coroUe blanche à tube de 11-14 mm. et lobes de, 2-3, très velue en dehors, style en général 5-lobé; baie rouge. - Maroni: Nouveau-camp (R. Benoist). »
-— Albert Lemée, 1953.[5]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -552,7 +566,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabicea aspera est présent au Suriname, en Guyane et au Brésil.
 </t>
@@ -583,9 +599,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabicea aspera pousse en Guyane dans les zones ouvertes dans les forêts de nuages[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea aspera pousse en Guyane dans les zones ouvertes dans les forêts de nuages.
 </t>
         </is>
       </c>
@@ -614,9 +632,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a proposé le protologue suivant de Sabicea aspera[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a proposé le protologue suivant de Sabicea aspera : 
 « 1. SABICEA, (aſpera) caule volubili ; foliis ovatis, acutis, aſperis, ſubtùs villoſis. (Tabula 76.) 
 Hæc ſpecies differt a præcedenti, caulibus aſperis, villoſis, foliis lanceolatis, acutis, ſupernè punctatis, viridibus, infernè villoſis, aſperis ; corollis quadri aut quinque-fidis ; numero staminum &amp; stigmatum quatuor vel quinque ; bacca tri, quadri &amp; quinque-loculari.
 Apparet intrà diviſuras calicis punctum rubrum. 
